--- a/Q11 - Spring Quarter/ExampleLab1.xlsx
+++ b/Q11 - Spring Quarter/ExampleLab1.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\My Docs (The other folders were made automatically by the computron)\School Docs\Q11 - Spring Quarter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\My_Documents__\School Docs\Q11 - Spring Quarter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4857BAF-1622-4B06-9A35-6D0D157B0E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AC7ABA-B0BA-4FFE-815F-4D764F1DA28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{37ACD0C6-34C7-4029-B29B-903961605613}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15400" firstSheet="1" activeTab="1" xr2:uid="{37ACD0C6-34C7-4029-B29B-903961605613}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="145">
   <si>
     <t>Binary Output</t>
   </si>
@@ -596,6 +598,252 @@
   </si>
   <si>
     <t>Branch PL 0xFFFFFD</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STMEA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R13!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(R0-R12)</t>
+    </r>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>0001 1111 1111 1111</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STREA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R7,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R13!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0x4</t>
+    </r>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>Registers</t>
+  </si>
+  <si>
+    <t>LDMEA R13! {R0-R12}</t>
+  </si>
+  <si>
+    <t>LDREA R6 R13! 0x4</t>
+  </si>
+  <si>
+    <t>0000 0000 0100</t>
+  </si>
+  <si>
+    <t>Clear Stack Pointer</t>
+  </si>
+  <si>
+    <t>MOVW R13, 0</t>
+  </si>
+  <si>
+    <t>MOVT R13, 0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STMEA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R13!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R0-R12}</t>
+    </r>
+  </si>
+  <si>
+    <t>Register List</t>
+  </si>
+  <si>
+    <t>MOVW R7, 0x4240</t>
+  </si>
+  <si>
+    <t>MOVT R7, 0xF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STREA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(R13!) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x4</t>
+    </r>
+  </si>
+  <si>
+    <t>Branch WAIT</t>
+  </si>
+  <si>
+    <t>0000 0000 0000 0000 0000 1011</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LDMEA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R13!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R0-R12}</t>
+    </r>
+  </si>
+  <si>
+    <t>Breaks Here</t>
   </si>
 </sst>
 </file>
@@ -1080,24 +1328,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907A4FA0-FA6C-4486-9E8E-45878247D48D}">
   <dimension ref="A2:Q29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" customWidth="1"/>
-    <col min="14" max="14" width="4.21875" customWidth="1"/>
-    <col min="15" max="15" width="39.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" customWidth="1"/>
+    <col min="10" max="10" width="14.36328125" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" customWidth="1"/>
+    <col min="14" max="14" width="4.1796875" customWidth="1"/>
+    <col min="15" max="15" width="39.453125" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>39</v>
       </c>
@@ -1105,7 +1353,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1140,7 +1388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1178,7 +1426,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -1208,7 +1456,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1246,7 +1494,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -1280,7 +1528,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1322,7 +1570,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -1362,7 +1610,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -1413,7 +1661,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
         <v>3</v>
@@ -1447,7 +1695,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1489,7 +1737,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -1529,7 +1777,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -1580,7 +1828,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1613,7 +1861,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
         <v>29</v>
       </c>
@@ -1655,7 +1903,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="7"/>
       <c r="C18" s="1" t="s">
         <v>3</v>
@@ -1685,7 +1933,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1723,7 +1971,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="7"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
@@ -1753,7 +2001,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="7" t="s">
         <v>31</v>
       </c>
@@ -1791,7 +2039,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" s="7"/>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -1831,7 +2079,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
         <v>32</v>
       </c>
@@ -1879,7 +2127,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1904,7 +2152,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B25" s="9" t="s">
         <v>44</v>
       </c>
@@ -1937,7 +2185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="F29" t="s">
         <v>49</v>
       </c>
@@ -1956,30 +2204,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBB050F-7F31-4601-B1EE-7EAB6C29A011}">
   <dimension ref="B4:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.21875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="5" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.77734375" style="11" customWidth="1"/>
-    <col min="15" max="15" width="36.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="11"/>
+    <col min="14" max="14" width="2.81640625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="36.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.90625" style="11"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>85</v>
       </c>
@@ -2011,7 +2259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
@@ -2043,7 +2291,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B6" s="13"/>
       <c r="C6" s="12" t="s">
         <v>3</v>
@@ -2064,7 +2312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
@@ -2096,7 +2344,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" s="13"/>
       <c r="C8" s="12" t="s">
         <v>3</v>
@@ -2123,7 +2371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
         <v>18</v>
       </c>
@@ -2161,7 +2409,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B10" s="13"/>
       <c r="C10" s="12" t="s">
         <v>3</v>
@@ -2197,7 +2445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2244,7 +2492,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" s="13"/>
       <c r="C12" s="12" t="s">
         <v>3</v>
@@ -2271,7 +2519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
         <v>27</v>
       </c>
@@ -2309,7 +2557,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B14" s="13"/>
       <c r="C14" s="12" t="s">
         <v>3</v>
@@ -2345,7 +2593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
         <v>28</v>
       </c>
@@ -2392,7 +2640,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B16" s="16" t="s">
         <v>86</v>
       </c>
@@ -2421,7 +2669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B17" s="17" t="s">
         <v>29</v>
       </c>
@@ -2459,7 +2707,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="17"/>
       <c r="C18" s="12" t="s">
         <v>3</v>
@@ -2480,7 +2728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="17" t="s">
         <v>30</v>
       </c>
@@ -2512,7 +2760,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="17"/>
       <c r="C20" s="12" t="s">
         <v>3</v>
@@ -2533,7 +2781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="17" t="s">
         <v>31</v>
       </c>
@@ -2565,7 +2813,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" s="17"/>
       <c r="C22" s="12" t="s">
         <v>3</v>
@@ -2601,7 +2849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" s="17" t="s">
         <v>32</v>
       </c>
@@ -2648,7 +2896,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B24" s="16" t="s">
         <v>87</v>
       </c>
@@ -2671,7 +2919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B25" s="19" t="s">
         <v>91</v>
       </c>
@@ -2703,7 +2951,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B26" s="19"/>
       <c r="C26" s="12" t="s">
         <v>3</v>
@@ -2724,7 +2972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B27" s="19" t="s">
         <v>92</v>
       </c>
@@ -2756,7 +3004,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B28" s="19"/>
       <c r="C28" s="12" t="s">
         <v>3</v>
@@ -2783,7 +3031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B29" s="19" t="s">
         <v>120</v>
       </c>
@@ -2821,7 +3069,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B30" s="19"/>
       <c r="C30" s="12" t="s">
         <v>3</v>
@@ -2836,7 +3084,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B31" s="19" t="s">
         <v>122</v>
       </c>
@@ -2862,7 +3110,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B32" s="16" t="s">
         <v>88</v>
       </c>
@@ -2891,7 +3139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B33" s="17" t="s">
         <v>89</v>
       </c>
@@ -2929,7 +3177,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B34" s="17"/>
       <c r="C34" s="12" t="s">
         <v>3</v>
@@ -2950,7 +3198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B35" s="17" t="s">
         <v>30</v>
       </c>
@@ -2982,7 +3230,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B36" s="17"/>
       <c r="C36" s="12" t="s">
         <v>3</v>
@@ -3003,7 +3251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B37" s="17" t="s">
         <v>31</v>
       </c>
@@ -3035,7 +3283,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B38" s="17"/>
       <c r="C38" s="12" t="s">
         <v>3</v>
@@ -3071,7 +3319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B39" s="17" t="s">
         <v>32</v>
       </c>
@@ -3118,7 +3366,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B40" s="16" t="s">
         <v>87</v>
       </c>
@@ -3141,7 +3389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B41" s="19" t="s">
         <v>91</v>
       </c>
@@ -3173,7 +3421,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B42" s="19"/>
       <c r="C42" s="12" t="s">
         <v>3</v>
@@ -3194,7 +3442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B43" s="19" t="s">
         <v>92</v>
       </c>
@@ -3226,7 +3474,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B44" s="19"/>
       <c r="C44" s="12" t="s">
         <v>3</v>
@@ -3253,7 +3501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B45" s="19" t="s">
         <v>121</v>
       </c>
@@ -3291,7 +3539,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B46" s="19"/>
       <c r="C46" s="12" t="s">
         <v>3</v>
@@ -3306,7 +3554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B47" s="19" t="s">
         <v>122</v>
       </c>
@@ -3332,7 +3580,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B48" s="16" t="s">
         <v>99</v>
       </c>
@@ -3349,7 +3597,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B49" s="20" t="s">
         <v>98</v>
       </c>
@@ -3372,6 +3620,2416 @@
         <v>118</v>
       </c>
       <c r="Q49" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D68EA68-9513-4CF6-8D03-85D7653CEC68}">
+  <dimension ref="D5:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="1" style="11" customWidth="1"/>
+    <col min="3" max="3" width="0.90625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="19" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" style="11"/>
+    <col min="6" max="6" width="4" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.36328125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="2.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.90625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D5" s="13"/>
+      <c r="E5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D6" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D7" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1110</v>
+      </c>
+      <c r="F7" s="11">
+        <v>100</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1101</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D11" s="13"/>
+      <c r="E11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D12" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D13" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1110</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E95C1A-45B7-49D0-A05C-62D757AEB216}">
+  <dimension ref="A1:Q77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B3" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+      <c r="B7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="11"/>
+      <c r="B13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="11"/>
+      <c r="B19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="11"/>
+      <c r="B21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="11"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="11"/>
+      <c r="B23" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="11"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="11"/>
+      <c r="B25" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="11"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="11"/>
+      <c r="B27" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L28" s="18"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="11"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="11"/>
+      <c r="B30" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="11"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="11"/>
+      <c r="B32" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="11"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="11"/>
+      <c r="B34" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="11"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="11"/>
+      <c r="B36" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="11">
+        <v>101</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="11"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="11"/>
+      <c r="B38" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="11"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="11"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="11"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="11"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="11"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="11"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="11"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" s="11"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="11"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="11"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A49" s="11"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50" s="11"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A51" s="11"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P53" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q53" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P55" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q55" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B56" s="19"/>
+      <c r="C56" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B57" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="11">
+        <v>1</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="11">
+        <v>1</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="P57" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q57" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B58" s="19"/>
+      <c r="C58" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B59" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="11">
+        <v>101</v>
+      </c>
+      <c r="E59" s="11">
+        <v>0</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P59" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q59" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B60" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B61" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="P61" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q61" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B62" s="17"/>
+      <c r="C62" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B63" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P63" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q63" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B64" s="17"/>
+      <c r="C64" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B65" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P65" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q65" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B66" s="17"/>
+      <c r="C66" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M66" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B67" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L67" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q67" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B68" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B69" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P69" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q69" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B70" s="19"/>
+      <c r="C70" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B71" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P71" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q71" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B72" s="19"/>
+      <c r="C72" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B73" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="11">
+        <v>1</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G73" s="11">
+        <v>1</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I73" s="11">
+        <v>110</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="P73" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q73" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B74" s="19"/>
+      <c r="C74" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B75" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="11">
+        <v>101</v>
+      </c>
+      <c r="E75" s="11">
+        <v>0</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P75" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q75" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B76" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B77" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="11">
+        <v>101</v>
+      </c>
+      <c r="E77" s="11">
+        <v>0</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P77" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q77" s="11" t="s">
         <v>119</v>
       </c>
     </row>
